--- a/Code/Results/Cases/Case_2_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.197271237334917</v>
+        <v>3.806272524032465</v>
       </c>
       <c r="C2">
-        <v>0.957736110171453</v>
+        <v>0.3212956160848535</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02302448228732512</v>
+        <v>0.05532901642202059</v>
       </c>
       <c r="F2">
-        <v>2.85337465687175</v>
+        <v>3.70464775268988</v>
       </c>
       <c r="G2">
-        <v>0.0008104017434114634</v>
+        <v>0.0025956073158001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.113313270428776</v>
+        <v>0.2005287507781972</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2224844618318684</v>
+        <v>0.3365207436026623</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.408580726628202</v>
+        <v>2.430445988994322</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.53770193251961</v>
+        <v>3.666141872880814</v>
       </c>
       <c r="C3">
-        <v>0.8211972302167112</v>
+        <v>0.2865476443133161</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02103274073503858</v>
+        <v>0.05473672384142958</v>
       </c>
       <c r="F3">
-        <v>2.621863106675988</v>
+        <v>3.669879028616378</v>
       </c>
       <c r="G3">
-        <v>0.0008216040370172841</v>
+        <v>0.002602386497523405</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1124893018075497</v>
+        <v>0.2011812927386316</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1988383727165441</v>
+        <v>0.3330366045387692</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.441105133248797</v>
+        <v>2.443700696876348</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.142743662127373</v>
+        <v>3.582555058573405</v>
       </c>
       <c r="C4">
-        <v>0.7392957068722126</v>
+        <v>0.2653679681187384</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01985702326444638</v>
+        <v>0.05436756649986663</v>
       </c>
       <c r="F4">
-        <v>2.485952149608565</v>
+        <v>3.650484144524825</v>
       </c>
       <c r="G4">
-        <v>0.0008286388109914795</v>
+        <v>0.002606764667755355</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1122661505974172</v>
+        <v>0.2016649200696641</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1846165052873516</v>
+        <v>0.3310632547696528</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.463362315054681</v>
+        <v>2.452567992859784</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.983991259908237</v>
+        <v>3.549106132933559</v>
       </c>
       <c r="C5">
-        <v>0.7063316101040868</v>
+        <v>0.2567749998073907</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0193875183475809</v>
+        <v>0.05421570799158903</v>
       </c>
       <c r="F5">
-        <v>2.43197915521246</v>
+        <v>3.643069771083944</v>
       </c>
       <c r="G5">
-        <v>0.0008315478251557101</v>
+        <v>0.002608603255049731</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1122399852454983</v>
+        <v>0.201882754402348</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1788881804848543</v>
+        <v>0.3303008828876628</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.472969931396278</v>
+        <v>2.456363991072038</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.957754354343024</v>
+        <v>3.543588904698197</v>
       </c>
       <c r="C6">
-        <v>0.7008807553475265</v>
+        <v>0.2553503985601253</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01931007690389208</v>
+        <v>0.05419040472561143</v>
       </c>
       <c r="F6">
-        <v>2.423097955358415</v>
+        <v>3.641868109764715</v>
       </c>
       <c r="G6">
-        <v>0.0008320334990917247</v>
+        <v>0.002608911845331391</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1122393806540494</v>
+        <v>0.2019201758356282</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.177940850378242</v>
+        <v>0.3301768171315302</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.47459671695789</v>
+        <v>2.457005313948727</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.140594182770087</v>
+        <v>3.582101475917284</v>
       </c>
       <c r="C7">
-        <v>0.7388495689129115</v>
+        <v>0.2652519284211223</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01985065523686558</v>
+        <v>0.05436552430623109</v>
       </c>
       <c r="F7">
-        <v>2.485218730636362</v>
+        <v>3.650382173495302</v>
       </c>
       <c r="G7">
-        <v>0.0008286778679703698</v>
+        <v>0.002606789242956357</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1122655433247743</v>
+        <v>0.2016677739773876</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1845389883537081</v>
+        <v>0.3310528038890794</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.463489756608311</v>
+        <v>2.452618449079679</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.967566751996173</v>
+        <v>3.757443856529278</v>
       </c>
       <c r="C8">
-        <v>0.910208478529654</v>
+        <v>0.3092814379097888</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02232647297024926</v>
+        <v>0.05512590602539191</v>
       </c>
       <c r="F8">
-        <v>2.772155341054983</v>
+        <v>3.692252889109326</v>
       </c>
       <c r="G8">
-        <v>0.0008142336640553538</v>
+        <v>0.002597900125382569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1129664316108929</v>
+        <v>0.2007364614142872</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2142649368270071</v>
+        <v>0.3352850082024901</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.419296668611622</v>
+        <v>2.434864472441603</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.685362876827639</v>
+        <v>4.12095291838682</v>
       </c>
       <c r="C9">
-        <v>1.265450884647692</v>
+        <v>0.396919210658325</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02767611460476616</v>
+        <v>0.0565755244590056</v>
       </c>
       <c r="F9">
-        <v>3.392347436499534</v>
+        <v>3.789957678995137</v>
       </c>
       <c r="G9">
-        <v>0.0007870010094291494</v>
+        <v>0.002582171069794621</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1169139330916025</v>
+        <v>0.1995735367391234</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2752941349639286</v>
+        <v>0.3448992119133578</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.352699086041241</v>
+        <v>2.40586705739598</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.032871921976493</v>
+        <v>4.400313107916816</v>
       </c>
       <c r="C10">
-        <v>1.544449445559508</v>
+        <v>0.4621874310826684</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03210949338963154</v>
+        <v>0.05761820079204316</v>
       </c>
       <c r="F10">
-        <v>3.895962654835046</v>
+        <v>3.871399622949042</v>
       </c>
       <c r="G10">
-        <v>0.0007674184851831356</v>
+        <v>0.002571639890056376</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1219249942281238</v>
+        <v>0.1991308205204305</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3224099394048636</v>
+        <v>0.352763554578047</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.319102431716132</v>
+        <v>2.388158126787943</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.671722278018137</v>
+        <v>4.530139042465862</v>
       </c>
       <c r="C11">
-        <v>1.677005472141047</v>
+        <v>0.4920911375707533</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0342932147647641</v>
+        <v>0.05808833588250373</v>
       </c>
       <c r="F11">
-        <v>4.138962896065323</v>
+        <v>3.910580820069441</v>
       </c>
       <c r="G11">
-        <v>0.0007585373677996194</v>
+        <v>0.002567068774791991</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.124814155030343</v>
+        <v>0.1990204296928155</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3445006207315942</v>
+        <v>0.3565151158720141</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.307993216801677</v>
+        <v>2.380893295005279</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.918092387837305</v>
+        <v>4.579700352249006</v>
       </c>
       <c r="C12">
-        <v>1.728187514535364</v>
+        <v>0.5034470467082883</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03515024798816668</v>
+        <v>0.05826581484119409</v>
       </c>
       <c r="F12">
-        <v>4.233330078831216</v>
+        <v>3.925727008741404</v>
       </c>
       <c r="G12">
-        <v>0.0007551716870359163</v>
+        <v>0.002565369173955533</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1260115534380688</v>
+        <v>0.1989918479912944</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3529763305867135</v>
+        <v>0.3579607376640439</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.304472947144987</v>
+        <v>2.37825695334395</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.864821136176033</v>
+        <v>4.569008616483984</v>
       </c>
       <c r="C13">
-        <v>1.717117555147581</v>
+        <v>0.5009999014010305</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03496422027109425</v>
+        <v>0.05822761526212084</v>
       </c>
       <c r="F13">
-        <v>4.212895767534832</v>
+        <v>3.922451218743731</v>
       </c>
       <c r="G13">
-        <v>0.0007558967777011464</v>
+        <v>0.002565733820848654</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1257487933537718</v>
+        <v>0.1989974133919858</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3511457417456256</v>
+        <v>0.3576482864222328</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.30519902285792</v>
+        <v>2.378819620567498</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.69189742478568</v>
+        <v>4.534208457458817</v>
       </c>
       <c r="C14">
-        <v>1.68119537031248</v>
+        <v>0.4930247450363936</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03436308042223502</v>
+        <v>0.05810294793264781</v>
       </c>
       <c r="F14">
-        <v>4.146677263376858</v>
+        <v>3.911820696870763</v>
       </c>
       <c r="G14">
-        <v>0.0007582605643675311</v>
+        <v>0.002566928320079652</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1249104938902832</v>
+        <v>0.199017812510462</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3451956087068595</v>
+        <v>0.3566335474794755</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.3076892925544</v>
+        <v>2.380674097545636</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.586580293229531</v>
+        <v>4.512944458980996</v>
       </c>
       <c r="C15">
-        <v>1.659326144052443</v>
+        <v>0.4881439444446869</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03399898875732354</v>
+        <v>0.0580265153561399</v>
       </c>
       <c r="F15">
-        <v>4.106433713639717</v>
+        <v>3.905349524448724</v>
       </c>
       <c r="G15">
-        <v>0.0007597079023096572</v>
+        <v>0.00256766406624799</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1244109862233529</v>
+        <v>0.1990320333591313</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3415658794317551</v>
+        <v>0.356015243528887</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.309306889605622</v>
+        <v>2.381824982743041</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.991701721244397</v>
+        <v>4.391884269590378</v>
       </c>
       <c r="C16">
-        <v>1.53591431751255</v>
+        <v>0.4602375572926576</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03197063414500434</v>
+        <v>0.05758739647708921</v>
       </c>
       <c r="F16">
-        <v>3.880390293572447</v>
+        <v>3.868882163498228</v>
       </c>
       <c r="G16">
-        <v>0.0007679989021392566</v>
+        <v>0.002571943024685264</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1217497200192525</v>
+        <v>0.199139877492577</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3209807947966965</v>
+        <v>0.3525218798116185</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.319919475765161</v>
+        <v>2.38864889863126</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.633869520788835</v>
+        <v>4.318323642926259</v>
       </c>
       <c r="C17">
-        <v>1.461764293958936</v>
+        <v>0.4431734112563959</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0307730173128089</v>
+        <v>0.05731697544906655</v>
       </c>
       <c r="F17">
-        <v>3.745511321540818</v>
+        <v>3.847058596829868</v>
       </c>
       <c r="G17">
-        <v>0.0007730878180499763</v>
+        <v>0.002574624127257229</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1202834960628536</v>
+        <v>0.1992294394627621</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3085314614483963</v>
+        <v>0.3504233595201498</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.327555842740608</v>
+        <v>2.393038421317726</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.430437591946543</v>
+        <v>4.276271477687487</v>
       </c>
       <c r="C18">
-        <v>1.419633702640908</v>
+        <v>0.433378515580273</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03009946301396926</v>
+        <v>0.05716103956113638</v>
       </c>
       <c r="F18">
-        <v>3.669217118221098</v>
+        <v>3.834706864543421</v>
       </c>
       <c r="G18">
-        <v>0.0007760178226806441</v>
+        <v>0.002576186905212725</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.119496445786055</v>
+        <v>0.1992895105490149</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3014317322192852</v>
+        <v>0.3492327289958723</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.33233499295244</v>
+        <v>2.39563755890795</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.361948119617125</v>
+        <v>4.262077506327671</v>
       </c>
       <c r="C19">
-        <v>1.405453229469288</v>
+        <v>0.4300655159163966</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02987386836142658</v>
+        <v>0.05710817266139578</v>
       </c>
       <c r="F19">
-        <v>3.64359614360103</v>
+        <v>3.830559161623427</v>
       </c>
       <c r="G19">
-        <v>0.0007770105665612467</v>
+        <v>0.002576719592288053</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1192392005425802</v>
+        <v>0.1993113152663142</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.299037882938336</v>
+        <v>0.3488324169647115</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.334017193702323</v>
+        <v>2.396530332106423</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.67170975920186</v>
+        <v>4.326127566783384</v>
       </c>
       <c r="C20">
-        <v>1.4696028539488</v>
+        <v>0.4449878438370547</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03089888376499683</v>
+        <v>0.05734580293968961</v>
       </c>
       <c r="F20">
-        <v>3.759734123129903</v>
+        <v>3.849360973444902</v>
       </c>
       <c r="G20">
-        <v>0.0007725458276002239</v>
+        <v>0.002574336580527004</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1204336489412654</v>
+        <v>0.1992190188121157</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3098503145178171</v>
+        <v>0.3506450553175142</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.326702316821056</v>
+        <v>2.392563442229431</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.742562018759145</v>
+        <v>4.544419241120409</v>
       </c>
       <c r="C21">
-        <v>1.691718270589377</v>
+        <v>0.4953663612469654</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03453877756935952</v>
+        <v>0.05813958029520272</v>
       </c>
       <c r="F21">
-        <v>4.166060429612685</v>
+        <v>3.914934729874773</v>
       </c>
       <c r="G21">
-        <v>0.0007575663906456143</v>
+        <v>0.002566576616700602</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.125153777942586</v>
+        <v>0.1990114608954769</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3469401699988595</v>
+        <v>0.3569309230567939</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.306938441705924</v>
+        <v>2.380126272412269</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.46881129600979</v>
+        <v>4.689413596840268</v>
       </c>
       <c r="C22">
-        <v>1.842736689808305</v>
+        <v>0.5284789727411408</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03709698533596395</v>
+        <v>0.05865517223125138</v>
       </c>
       <c r="F22">
-        <v>4.445513974659605</v>
+        <v>3.959593916396443</v>
       </c>
       <c r="G22">
-        <v>0.0007477574526953235</v>
+        <v>0.002561687853974542</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.128850634957125</v>
+        <v>0.1989529359087285</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3718336440744565</v>
+        <v>0.3611847286849184</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.298075372669899</v>
+        <v>2.372666825392557</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.078506666368753</v>
+        <v>4.611812831925931</v>
       </c>
       <c r="C23">
-        <v>1.761532995395328</v>
+        <v>0.5107885332720343</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03571283694058636</v>
+        <v>0.0583802657930157</v>
       </c>
       <c r="F23">
-        <v>4.294961081254087</v>
+        <v>3.935592685491486</v>
       </c>
       <c r="G23">
-        <v>0.0007529968625454433</v>
+        <v>0.002564280414168213</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1268155306133636</v>
+        <v>0.198977069491356</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3584818184202305</v>
+        <v>0.3589010794660936</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.302402060741755</v>
+        <v>2.376586547932732</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.654595106349802</v>
+        <v>4.32259866927933</v>
       </c>
       <c r="C24">
-        <v>1.466057498705879</v>
+        <v>0.4441674906654498</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03084193334946583</v>
+        <v>0.05733277149031224</v>
       </c>
       <c r="F24">
-        <v>3.753300128137454</v>
+        <v>3.848319462005691</v>
       </c>
       <c r="G24">
-        <v>0.0007727908474459699</v>
+        <v>0.002574466513891207</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1203655918484401</v>
+        <v>0.199223703271052</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3092538829281466</v>
+        <v>0.3505447773165571</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.327086990890052</v>
+        <v>2.392777945047939</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.207825165410213</v>
+        <v>4.020478089088897</v>
       </c>
       <c r="C25">
-        <v>1.166699501894016</v>
+        <v>0.3730628347805691</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02615731769398799</v>
+        <v>0.05618750572816733</v>
       </c>
       <c r="F25">
-        <v>3.217189715347388</v>
+        <v>3.761840883664973</v>
       </c>
       <c r="G25">
-        <v>0.0007942740330379686</v>
+        <v>0.002586245271559128</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1155198877992234</v>
+        <v>0.1998163770794079</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.258433062034058</v>
+        <v>0.3421576440611176</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.368275052004648</v>
+        <v>2.413083785038737</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_130/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.806272524032465</v>
+        <v>5.19727123733503</v>
       </c>
       <c r="C2">
-        <v>0.3212956160848535</v>
+        <v>0.9577361101712256</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05532901642202059</v>
+        <v>0.02302448228742726</v>
       </c>
       <c r="F2">
-        <v>3.70464775268988</v>
+        <v>2.853374656871779</v>
       </c>
       <c r="G2">
-        <v>0.0025956073158001</v>
+        <v>0.0008104017434813171</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2005287507781972</v>
+        <v>0.113313270428776</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3365207436026623</v>
+        <v>0.2224844618318684</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.430445988994322</v>
+        <v>1.408580726628315</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.666141872880814</v>
+        <v>4.53770193251961</v>
       </c>
       <c r="C3">
-        <v>0.2865476443133161</v>
+        <v>0.8211972302167396</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05473672384142958</v>
+        <v>0.02103274073503769</v>
       </c>
       <c r="F3">
-        <v>3.669879028616378</v>
+        <v>2.621863106675988</v>
       </c>
       <c r="G3">
-        <v>0.002602386497523405</v>
+        <v>0.0008216040371386314</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2011812927386316</v>
+        <v>0.1124893018074431</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3330366045387692</v>
+        <v>0.1988383727165228</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.443700696876348</v>
+        <v>1.441105133248811</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.582555058573405</v>
+        <v>4.14274366212743</v>
       </c>
       <c r="C4">
-        <v>0.2653679681187384</v>
+        <v>0.7392957068720705</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05436756649986663</v>
+        <v>0.01985702326442063</v>
       </c>
       <c r="F4">
-        <v>3.650484144524825</v>
+        <v>2.485952149608579</v>
       </c>
       <c r="G4">
-        <v>0.002606764667755355</v>
+        <v>0.0008286388108761207</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2016649200696641</v>
+        <v>0.1122661505974456</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3310632547696528</v>
+        <v>0.1846165052872735</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.452567992859784</v>
+        <v>1.463362315054738</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.549106132933559</v>
+        <v>3.983991259908294</v>
       </c>
       <c r="C5">
-        <v>0.2567749998073907</v>
+        <v>0.7063316101043142</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05421570799158903</v>
+        <v>0.01938751834758445</v>
       </c>
       <c r="F5">
-        <v>3.643069771083944</v>
+        <v>2.431979155212503</v>
       </c>
       <c r="G5">
-        <v>0.002608603255049731</v>
+        <v>0.0008315478252155179</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.201882754402348</v>
+        <v>0.1122399852455906</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3303008828876628</v>
+        <v>0.1788881804849964</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.456363991072038</v>
+        <v>1.472969931396293</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.543588904698197</v>
+        <v>3.957754354343251</v>
       </c>
       <c r="C6">
-        <v>0.2553503985601253</v>
+        <v>0.7008807553475265</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05419040472561143</v>
+        <v>0.01931007690394271</v>
       </c>
       <c r="F6">
-        <v>3.641868109764715</v>
+        <v>2.423097955358372</v>
       </c>
       <c r="G6">
-        <v>0.002608911845331391</v>
+        <v>0.0008320334990874862</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2019201758356282</v>
+        <v>0.1122393806540067</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3301768171315302</v>
+        <v>0.1779408503782491</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.457005313948727</v>
+        <v>1.474596716957876</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.582101475917284</v>
+        <v>4.140594182769917</v>
       </c>
       <c r="C7">
-        <v>0.2652519284211223</v>
+        <v>0.7388495689124284</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05436552430623109</v>
+        <v>0.01985065523686913</v>
       </c>
       <c r="F7">
-        <v>3.650382173495302</v>
+        <v>2.485218730636376</v>
       </c>
       <c r="G7">
-        <v>0.002606789242956357</v>
+        <v>0.0008286778680311793</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2016677739773876</v>
+        <v>0.1122655433248951</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3310528038890794</v>
+        <v>0.1845389883536015</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.452618449079679</v>
+        <v>1.46348975660834</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.757443856529278</v>
+        <v>4.967566751996287</v>
       </c>
       <c r="C8">
-        <v>0.3092814379097888</v>
+        <v>0.9102084785296256</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05512590602539191</v>
+        <v>0.02232647297022794</v>
       </c>
       <c r="F8">
-        <v>3.692252889109326</v>
+        <v>2.77215534105494</v>
       </c>
       <c r="G8">
-        <v>0.002597900125382569</v>
+        <v>0.0008142336639945707</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2007364614142872</v>
+        <v>0.1129664316109782</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3352850082024901</v>
+        <v>0.2142649368268792</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.434864472441603</v>
+        <v>1.419296668611636</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.12095291838682</v>
+        <v>6.685362876827639</v>
       </c>
       <c r="C9">
-        <v>0.396919210658325</v>
+        <v>1.265450884647692</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0565755244590056</v>
+        <v>0.02767611460475639</v>
       </c>
       <c r="F9">
-        <v>3.789957678995137</v>
+        <v>3.392347436499563</v>
       </c>
       <c r="G9">
-        <v>0.002582171069794621</v>
+        <v>0.0007870010094245361</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1995735367391234</v>
+        <v>0.1169139330915669</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3448992119133578</v>
+        <v>0.2752941349640707</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.40586705739598</v>
+        <v>1.352699086041213</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.400313107916816</v>
+        <v>8.032871921976493</v>
       </c>
       <c r="C10">
-        <v>0.4621874310826684</v>
+        <v>1.544449445558769</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05761820079204316</v>
+        <v>0.03210949338962621</v>
       </c>
       <c r="F10">
-        <v>3.871399622949042</v>
+        <v>3.895962654835046</v>
       </c>
       <c r="G10">
-        <v>0.002571639890056376</v>
+        <v>0.0007674184851265142</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1991308205204305</v>
+        <v>0.1219249942279177</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.352763554578047</v>
+        <v>0.3224099394049205</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.388158126787943</v>
+        <v>1.319102431716175</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.530139042465862</v>
+        <v>8.67172227801791</v>
       </c>
       <c r="C11">
-        <v>0.4920911375707533</v>
+        <v>1.677005472141275</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05808833588250373</v>
+        <v>0.03429321476472502</v>
       </c>
       <c r="F11">
-        <v>3.910580820069441</v>
+        <v>4.138962896065351</v>
       </c>
       <c r="G11">
-        <v>0.002567068774791991</v>
+        <v>0.0007585373677749807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1990204296928155</v>
+        <v>0.1248141550304496</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3565151158720141</v>
+        <v>0.3445006207314236</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.380893295005279</v>
+        <v>1.307993216801677</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.579700352249006</v>
+        <v>8.918092387837419</v>
       </c>
       <c r="C12">
-        <v>0.5034470467082883</v>
+        <v>1.728187514535136</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05826581484119409</v>
+        <v>0.03515024798812405</v>
       </c>
       <c r="F12">
-        <v>3.925727008741404</v>
+        <v>4.233330078831216</v>
       </c>
       <c r="G12">
-        <v>0.002565369173955533</v>
+        <v>0.0007551716871154461</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1989918479912944</v>
+        <v>0.1260115534379409</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3579607376640439</v>
+        <v>0.3529763305866567</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.37825695334395</v>
+        <v>1.30447294714493</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.569008616483984</v>
+        <v>8.864821136175806</v>
       </c>
       <c r="C13">
-        <v>0.5009999014010305</v>
+        <v>1.717117555148093</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05822761526212084</v>
+        <v>0.03496422027109247</v>
       </c>
       <c r="F13">
-        <v>3.922451218743731</v>
+        <v>4.212895767534832</v>
       </c>
       <c r="G13">
-        <v>0.002565733820848654</v>
+        <v>0.0007558967775637008</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1989974133919858</v>
+        <v>0.1257487933538428</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3576482864222328</v>
+        <v>0.3511457417457109</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.378819620567498</v>
+        <v>1.305199022857977</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.534208457458817</v>
+        <v>8.691897424785793</v>
       </c>
       <c r="C14">
-        <v>0.4930247450363936</v>
+        <v>1.681195370312537</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05810294793264781</v>
+        <v>0.03436308042221725</v>
       </c>
       <c r="F14">
-        <v>3.911820696870763</v>
+        <v>4.14667726337683</v>
       </c>
       <c r="G14">
-        <v>0.002566928320079652</v>
+        <v>0.0007582605643743153</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.199017812510462</v>
+        <v>0.124910493890205</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3566335474794755</v>
+        <v>0.3451956087067458</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.380674097545636</v>
+        <v>1.307689292554429</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.512944458980996</v>
+        <v>8.586580293229417</v>
       </c>
       <c r="C15">
-        <v>0.4881439444446869</v>
+        <v>1.659326144051875</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0580265153561399</v>
+        <v>0.03399898875732887</v>
       </c>
       <c r="F15">
-        <v>3.905349524448724</v>
+        <v>4.106433713639689</v>
       </c>
       <c r="G15">
-        <v>0.00256766406624799</v>
+        <v>0.0007597079023098792</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1990320333591313</v>
+        <v>0.1244109862232676</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.356015243528887</v>
+        <v>0.3415658794318546</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.381824982743041</v>
+        <v>1.309306889605693</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.391884269590378</v>
+        <v>7.991701721244283</v>
       </c>
       <c r="C16">
-        <v>0.4602375572926576</v>
+        <v>1.535914317512322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05758739647708921</v>
+        <v>0.03197063414500345</v>
       </c>
       <c r="F16">
-        <v>3.868882163498228</v>
+        <v>3.880390293572475</v>
       </c>
       <c r="G16">
-        <v>0.002571943024685264</v>
+        <v>0.0007679989022733716</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.199139877492577</v>
+        <v>0.1217497200190607</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3525218798116185</v>
+        <v>0.3209807947966965</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.38864889863126</v>
+        <v>1.319919475765147</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.318323642926259</v>
+        <v>7.633869520788949</v>
       </c>
       <c r="C17">
-        <v>0.4431734112563959</v>
+        <v>1.461764293958652</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05731697544906655</v>
+        <v>0.03077301731284621</v>
       </c>
       <c r="F17">
-        <v>3.847058596829868</v>
+        <v>3.745511321540789</v>
       </c>
       <c r="G17">
-        <v>0.002574624127257229</v>
+        <v>0.0007730878179204037</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1992294394627621</v>
+        <v>0.1202834960629318</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3504233595201498</v>
+        <v>0.3085314614482968</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.393038421317726</v>
+        <v>1.32755584274058</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.276271477687487</v>
+        <v>7.430437591946372</v>
       </c>
       <c r="C18">
-        <v>0.433378515580273</v>
+        <v>1.419633702640624</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05716103956113638</v>
+        <v>0.03009946301394262</v>
       </c>
       <c r="F18">
-        <v>3.834706864543421</v>
+        <v>3.66921711822107</v>
       </c>
       <c r="G18">
-        <v>0.002576186905212725</v>
+        <v>0.000776017822685486</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1992895105490149</v>
+        <v>0.1194964457860195</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3492327289958723</v>
+        <v>0.3014317322191573</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.39563755890795</v>
+        <v>1.332334992952454</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.262077506327671</v>
+        <v>7.361948119616955</v>
       </c>
       <c r="C19">
-        <v>0.4300655159163966</v>
+        <v>1.405453229469458</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05710817266139578</v>
+        <v>0.02987386836139461</v>
       </c>
       <c r="F19">
-        <v>3.830559161623427</v>
+        <v>3.643596143601059</v>
       </c>
       <c r="G19">
-        <v>0.002576719592288053</v>
+        <v>0.0007770105666356788</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1993113152663142</v>
+        <v>0.1192392005428076</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3488324169647115</v>
+        <v>0.2990378829381655</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.396530332106423</v>
+        <v>1.334017193702323</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.326127566783384</v>
+        <v>7.671709759201747</v>
       </c>
       <c r="C20">
-        <v>0.4449878438370547</v>
+        <v>1.4696028539488</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05734580293968961</v>
+        <v>0.03089888376492933</v>
       </c>
       <c r="F20">
-        <v>3.849360973444902</v>
+        <v>3.759734123129903</v>
       </c>
       <c r="G20">
-        <v>0.002574336580527004</v>
+        <v>0.000772545827681126</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1992190188121157</v>
+        <v>0.1204336489414288</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3506450553175142</v>
+        <v>0.3098503145178597</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.392563442229431</v>
+        <v>1.32670231682107</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.544419241120409</v>
+        <v>8.742562018758804</v>
       </c>
       <c r="C21">
-        <v>0.4953663612469654</v>
+        <v>1.691718270589604</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05813958029520272</v>
+        <v>0.03453877756932577</v>
       </c>
       <c r="F21">
-        <v>3.914934729874773</v>
+        <v>4.166060429612628</v>
       </c>
       <c r="G21">
-        <v>0.002566576616700602</v>
+        <v>0.0007575663907046781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1990114608954769</v>
+        <v>0.1251537779426002</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3569309230567939</v>
+        <v>0.3469401699990016</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.380126272412269</v>
+        <v>1.306938441706038</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.689413596840268</v>
+        <v>9.468811296009562</v>
       </c>
       <c r="C22">
-        <v>0.5284789727411408</v>
+        <v>1.842736689808589</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05865517223125138</v>
+        <v>0.03709698533596928</v>
       </c>
       <c r="F22">
-        <v>3.959593916396443</v>
+        <v>4.445513974659605</v>
       </c>
       <c r="G22">
-        <v>0.002561687853974542</v>
+        <v>0.0007477574527825871</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1989529359087285</v>
+        <v>0.1288506349570966</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3611847286849184</v>
+        <v>0.3718336440743144</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.372666825392557</v>
+        <v>1.298075372669885</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.611812831925931</v>
+        <v>9.078506666368753</v>
       </c>
       <c r="C23">
-        <v>0.5107885332720343</v>
+        <v>1.761532995395896</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0583802657930157</v>
+        <v>0.0357128369405828</v>
       </c>
       <c r="F23">
-        <v>3.935592685491486</v>
+        <v>4.294961081254115</v>
       </c>
       <c r="G23">
-        <v>0.002564280414168213</v>
+        <v>0.0007529968625457366</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.198977069491356</v>
+        <v>0.126815530613456</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3589010794660936</v>
+        <v>0.3584818184201453</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.376586547932732</v>
+        <v>1.302402060741699</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.32259866927933</v>
+        <v>7.654595106349632</v>
       </c>
       <c r="C24">
-        <v>0.4441674906654498</v>
+        <v>1.466057498705311</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05733277149031224</v>
+        <v>0.03084193334946672</v>
       </c>
       <c r="F24">
-        <v>3.848319462005691</v>
+        <v>3.753300128137454</v>
       </c>
       <c r="G24">
-        <v>0.002574466513891207</v>
+        <v>0.0007727908476000883</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.199223703271052</v>
+        <v>0.1203655918483264</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3505447773165571</v>
+        <v>0.3092538829281608</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.392777945047939</v>
+        <v>1.327086990890052</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.020478089088897</v>
+        <v>6.207825165410441</v>
       </c>
       <c r="C25">
-        <v>0.3730628347805691</v>
+        <v>1.166699501893959</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05618750572816733</v>
+        <v>0.02615731769396401</v>
       </c>
       <c r="F25">
-        <v>3.761840883664973</v>
+        <v>3.217189715347359</v>
       </c>
       <c r="G25">
-        <v>0.002586245271559128</v>
+        <v>0.0007942740329694599</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1998163770794079</v>
+        <v>0.1155198877992447</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3421576440611176</v>
+        <v>0.2584330620340722</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.413083785038737</v>
+        <v>1.368275052004577</v>
       </c>
       <c r="O25">
         <v>0</v>
